--- a/cam4_validation.xlsx
+++ b/cam4_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107D4E8-354D-48FC-A7CC-C71E1AC21143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E928DB-DA24-49A9-9385-B2A922D3532D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9686" yWindow="3317" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>897.92200000000003</v>
+        <v>913.51300000000003</v>
       </c>
       <c r="B1" s="1">
-        <v>1015.409</v>
+        <v>1015.333</v>
       </c>
       <c r="C1" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,13 +372,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>940.77300000000002</v>
+        <v>949.37800000000004</v>
       </c>
       <c r="B2" s="1">
-        <v>1778.8620000000001</v>
+        <v>1784.039</v>
       </c>
       <c r="C2" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D2" s="1">
         <v>-16.079999999999998</v>
@@ -387,253 +387,253 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>932.26</v>
+        <v>942.00199999999995</v>
       </c>
       <c r="B3" s="1">
-        <v>1673.595</v>
+        <v>1679.7239999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>925.16899999999998</v>
+        <v>935.70100000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>1575.712</v>
+        <v>1580.7619999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.93</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>919.02800000000002</v>
+        <v>930.39200000000005</v>
       </c>
       <c r="B5" s="1">
-        <v>1482.498</v>
+        <v>1485.5889999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>913.375</v>
+        <v>925.77599999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1388.674</v>
+        <v>1390.654</v>
       </c>
       <c r="C6" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>908.36</v>
+        <v>921.56</v>
       </c>
       <c r="B7" s="1">
-        <v>1294.8900000000001</v>
+        <v>1295.0809999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>904.27</v>
+        <v>918.09699999999998</v>
       </c>
       <c r="B8" s="1">
-        <v>1201.9590000000001</v>
+        <v>1201.6659999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>900.98599999999999</v>
+        <v>915.52</v>
       </c>
       <c r="B9" s="1">
-        <v>1109.2950000000001</v>
+        <v>1108.748</v>
       </c>
       <c r="C9" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>897.95</v>
+        <v>913.52</v>
       </c>
       <c r="B10" s="1">
-        <v>1015.116</v>
+        <v>1012.112</v>
       </c>
       <c r="C10" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>895.84100000000001</v>
+        <v>912.23</v>
       </c>
       <c r="B11" s="1">
-        <v>923.10400000000004</v>
+        <v>919.68499999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>894.322</v>
+        <v>911.5</v>
       </c>
       <c r="B12" s="1">
-        <v>827.78499999999997</v>
+        <v>823.75699999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>893.60699999999997</v>
+        <v>911.52</v>
       </c>
       <c r="B13" s="1">
-        <v>734.59500000000003</v>
+        <v>728.702</v>
       </c>
       <c r="C13" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>893.45</v>
+        <v>912.13599999999997</v>
       </c>
       <c r="B14" s="1">
-        <v>638.10599999999999</v>
+        <v>630.803</v>
       </c>
       <c r="C14" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D14" s="1">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>894.03300000000002</v>
+        <v>913.89800000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>539.02499999999998</v>
+        <v>534.5</v>
       </c>
       <c r="C15" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D15" s="1">
-        <v>10.02</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>894.98699999999997</v>
+        <v>915.93200000000002</v>
       </c>
       <c r="B16" s="1">
-        <v>442.66699999999997</v>
+        <v>433.73</v>
       </c>
       <c r="C16" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>11.97</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>896.54499999999996</v>
+        <v>918.64099999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>342.875</v>
+        <v>332.71199999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>899</v>
+        <v>922.36500000000001</v>
       </c>
       <c r="B18" s="1">
-        <v>241.71</v>
+        <v>230.255</v>
       </c>
       <c r="C18" s="1">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="D18" s="1">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>879.98400000000004</v>
+        <v>895.50699999999995</v>
       </c>
       <c r="B19" s="1">
-        <v>1015.429</v>
+        <v>1014.967</v>
       </c>
       <c r="C19" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>921.88499999999999</v>
+        <v>930.48599999999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1777.193</v>
+        <v>1781.2180000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>913.92</v>
+        <v>923.33</v>
       </c>
       <c r="B21" s="1">
-        <v>1673.58</v>
+        <v>1677.248</v>
       </c>
       <c r="C21" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D21" s="1">
         <v>-13.98</v>
@@ -672,238 +672,238 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>906.91499999999996</v>
+        <v>917.43799999999999</v>
       </c>
       <c r="B22" s="1">
-        <v>1575.41</v>
+        <v>1580.904</v>
       </c>
       <c r="C22" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>900.81299999999999</v>
+        <v>912.08399999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1479.835</v>
+        <v>1484.954</v>
       </c>
       <c r="C23" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>895.14499999999998</v>
+        <v>907.35500000000002</v>
       </c>
       <c r="B24" s="1">
-        <v>1386.2180000000001</v>
+        <v>1389.085</v>
       </c>
       <c r="C24" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>890.41200000000003</v>
+        <v>903.32299999999998</v>
       </c>
       <c r="B25" s="1">
-        <v>1293.6949999999999</v>
+        <v>1294.1849999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>886.31299999999999</v>
+        <v>900.05600000000004</v>
       </c>
       <c r="B26" s="1">
-        <v>1200.8430000000001</v>
+        <v>1200.434</v>
       </c>
       <c r="C26" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>882.79100000000005</v>
+        <v>897.5</v>
       </c>
       <c r="B27" s="1">
-        <v>1107.3679999999999</v>
+        <v>1107.6980000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>879.98500000000001</v>
+        <v>895.5</v>
       </c>
       <c r="B28" s="1">
-        <v>1014.598</v>
+        <v>1012.197</v>
       </c>
       <c r="C28" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>877.88300000000004</v>
+        <v>894.19600000000003</v>
       </c>
       <c r="B29" s="1">
-        <v>921.98199999999997</v>
+        <v>919.22</v>
       </c>
       <c r="C29" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D29" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>876.26700000000005</v>
+        <v>893.5</v>
       </c>
       <c r="B30" s="1">
-        <v>828.04700000000003</v>
+        <v>824.42399999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D30" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>875.49099999999999</v>
+        <v>893.5</v>
       </c>
       <c r="B31" s="1">
-        <v>733.56899999999996</v>
+        <v>728.81600000000003</v>
       </c>
       <c r="C31" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>875.36699999999996</v>
+        <v>893.99099999999999</v>
       </c>
       <c r="B32" s="1">
-        <v>637.66700000000003</v>
+        <v>630.86900000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>875.85699999999997</v>
+        <v>895.31399999999996</v>
       </c>
       <c r="B33" s="1">
-        <v>540.17600000000004</v>
+        <v>533.221</v>
       </c>
       <c r="C33" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>876.58199999999999</v>
+        <v>897.5</v>
       </c>
       <c r="B34" s="1">
-        <v>442.40699999999998</v>
+        <v>433.92200000000003</v>
       </c>
       <c r="C34" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>878.28599999999994</v>
+        <v>900.18299999999999</v>
       </c>
       <c r="B35" s="1">
-        <v>342.21</v>
+        <v>332.20800000000003</v>
       </c>
       <c r="C35" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D35" s="1">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>880.43499999999995</v>
+        <v>903.48699999999997</v>
       </c>
       <c r="B36" s="1">
-        <v>240.75700000000001</v>
+        <v>230.482</v>
       </c>
       <c r="C36" s="1">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>15.98</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>863.26800000000003</v>
+        <v>878.577</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.532</v>
+        <v>1015.301</v>
       </c>
       <c r="C37" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>904.67200000000003</v>
+        <v>913.18399999999997</v>
       </c>
       <c r="B38" s="1">
-        <v>1776.704</v>
+        <v>1780.5909999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>896.78099999999995</v>
+        <v>906.21799999999996</v>
       </c>
       <c r="B39" s="1">
-        <v>1672.4849999999999</v>
+        <v>1677.287</v>
       </c>
       <c r="C39" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D39" s="1">
         <v>-13.98</v>
@@ -942,223 +942,223 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>889.97</v>
+        <v>900.351</v>
       </c>
       <c r="B40" s="1">
-        <v>1574.8789999999999</v>
+        <v>1579.8820000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>883.90099999999995</v>
+        <v>895.01300000000003</v>
       </c>
       <c r="B41" s="1">
-        <v>1479.5709999999999</v>
+        <v>1484.4380000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>878.48099999999999</v>
+        <v>890.52099999999996</v>
       </c>
       <c r="B42" s="1">
-        <v>1385.989</v>
+        <v>1388.847</v>
       </c>
       <c r="C42" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>873.74</v>
+        <v>886.65499999999997</v>
       </c>
       <c r="B43" s="1">
-        <v>1293.6959999999999</v>
+        <v>1294.2850000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>869.59199999999998</v>
+        <v>883.40200000000004</v>
       </c>
       <c r="B44" s="1">
-        <v>1200.325</v>
+        <v>1200.6179999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>866.23199999999997</v>
+        <v>880.66399999999999</v>
       </c>
       <c r="B45" s="1">
-        <v>1107.7280000000001</v>
+        <v>1107.655</v>
       </c>
       <c r="C45" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>863.16600000000005</v>
+        <v>878.51400000000001</v>
       </c>
       <c r="B46" s="1">
-        <v>1014.226</v>
+        <v>1012.317</v>
       </c>
       <c r="C46" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>861.24900000000002</v>
+        <v>877.5</v>
       </c>
       <c r="B47" s="1">
-        <v>922.00800000000004</v>
+        <v>919.72299999999996</v>
       </c>
       <c r="C47" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D47" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>859.70399999999995</v>
+        <v>876.5</v>
       </c>
       <c r="B48" s="1">
-        <v>828.13699999999994</v>
+        <v>825.49900000000002</v>
       </c>
       <c r="C48" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D48" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>858.64400000000001</v>
+        <v>876.5</v>
       </c>
       <c r="B49" s="1">
-        <v>733.81500000000005</v>
+        <v>729.48800000000006</v>
       </c>
       <c r="C49" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>858.46299999999997</v>
+        <v>877.20299999999997</v>
       </c>
       <c r="B50" s="1">
-        <v>637.86599999999999</v>
+        <v>631.87400000000002</v>
       </c>
       <c r="C50" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>858.96299999999997</v>
+        <v>878.42399999999998</v>
       </c>
       <c r="B51" s="1">
-        <v>540.495</v>
+        <v>533.87099999999998</v>
       </c>
       <c r="C51" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>859.52</v>
+        <v>880.42200000000003</v>
       </c>
       <c r="B52" s="1">
-        <v>443.226</v>
+        <v>435.06400000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>860.91600000000005</v>
+        <v>883</v>
       </c>
       <c r="B53" s="1">
-        <v>342.93900000000002</v>
+        <v>333.71800000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D53" s="1">
-        <v>14.02</v>
+        <v>13.98</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>863.01800000000003</v>
+        <v>886.20299999999997</v>
       </c>
       <c r="B54" s="1">
-        <v>242.614</v>
+        <v>231.541</v>
       </c>
       <c r="C54" s="1">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="D54" s="1">
         <v>15.98</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>847.90099999999995</v>
+        <v>863.48900000000003</v>
       </c>
       <c r="B55" s="1">
-        <v>1015.193</v>
+        <v>1014.991</v>
       </c>
       <c r="C55" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>888.48299999999995</v>
+        <v>897.053</v>
       </c>
       <c r="B56" s="1">
-        <v>1775.279</v>
+        <v>1779.442</v>
       </c>
       <c r="C56" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D56" s="1">
         <v>-16.07</v>
@@ -1197,43 +1197,43 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>880.71699999999998</v>
+        <v>890.26700000000005</v>
       </c>
       <c r="B57" s="1">
-        <v>1670.32</v>
+        <v>1676.748</v>
       </c>
       <c r="C57" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>874.34100000000001</v>
+        <v>884.40899999999999</v>
       </c>
       <c r="B58" s="1">
-        <v>1575.077</v>
+        <v>1577.8820000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>868.30200000000002</v>
+        <v>879.24</v>
       </c>
       <c r="B59" s="1">
-        <v>1479.662</v>
+        <v>1482.607</v>
       </c>
       <c r="C59" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D59" s="1">
         <v>-9.9499999999999993</v>
@@ -1242,28 +1242,28 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>862.86699999999996</v>
+        <v>874.93100000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1385.864</v>
+        <v>1388.8689999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.95</v>
+        <v>-8</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>858.13800000000003</v>
+        <v>870.98599999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>1293.269</v>
+        <v>1293.2819999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D61" s="1">
         <v>-5.95</v>
@@ -1272,178 +1272,178 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>854.13099999999997</v>
+        <v>867.90599999999995</v>
       </c>
       <c r="B62" s="1">
-        <v>1200.874</v>
+        <v>1200.662</v>
       </c>
       <c r="C62" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>850.803</v>
+        <v>865.43200000000002</v>
       </c>
       <c r="B63" s="1">
-        <v>1108.42</v>
+        <v>1106.74</v>
       </c>
       <c r="C63" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>847.89300000000003</v>
+        <v>863.476</v>
       </c>
       <c r="B64" s="1">
-        <v>1014.715</v>
+        <v>1011.763</v>
       </c>
       <c r="C64" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>845.78399999999999</v>
+        <v>861.73</v>
       </c>
       <c r="B65" s="1">
-        <v>922.40599999999995</v>
+        <v>919.46799999999996</v>
       </c>
       <c r="C65" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D65" s="1">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>844.06899999999996</v>
+        <v>861.43700000000001</v>
       </c>
       <c r="B66" s="1">
-        <v>828.59699999999998</v>
+        <v>823.67100000000005</v>
       </c>
       <c r="C66" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D66" s="1">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>843.37900000000002</v>
+        <v>860.99099999999999</v>
       </c>
       <c r="B67" s="1">
-        <v>734.61500000000001</v>
+        <v>728.51700000000005</v>
       </c>
       <c r="C67" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>842.97500000000002</v>
+        <v>861.5</v>
       </c>
       <c r="B68" s="1">
-        <v>638.61300000000006</v>
+        <v>631.63</v>
       </c>
       <c r="C68" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>843.07600000000002</v>
+        <v>862.80600000000004</v>
       </c>
       <c r="B69" s="1">
-        <v>541.34500000000003</v>
+        <v>533.875</v>
       </c>
       <c r="C69" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>843.84699999999998</v>
+        <v>864.5</v>
       </c>
       <c r="B70" s="1">
-        <v>443.03100000000001</v>
+        <v>434.96300000000002</v>
       </c>
       <c r="C70" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>845.226</v>
+        <v>867</v>
       </c>
       <c r="B71" s="1">
-        <v>344.02100000000002</v>
+        <v>333.733</v>
       </c>
       <c r="C71" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D71" s="1">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>847.00099999999998</v>
+        <v>870.10900000000004</v>
       </c>
       <c r="B72" s="1">
-        <v>242.643</v>
+        <v>231.202</v>
       </c>
       <c r="C72" s="1">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>833.48800000000006</v>
+        <v>848.71299999999997</v>
       </c>
       <c r="B73" s="1">
-        <v>1015.427</v>
+        <v>1015.275</v>
       </c>
       <c r="C73" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>873.54700000000003</v>
+        <v>882.06899999999996</v>
       </c>
       <c r="B74" s="1">
-        <v>1774.9010000000001</v>
+        <v>1778.854</v>
       </c>
       <c r="C74" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D74" s="1">
         <v>-16.07</v>
@@ -1467,43 +1467,43 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>866.08500000000004</v>
+        <v>875.48599999999999</v>
       </c>
       <c r="B75" s="1">
-        <v>1671.386</v>
+        <v>1675.7080000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D75" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>859.57600000000002</v>
+        <v>869.89700000000005</v>
       </c>
       <c r="B76" s="1">
-        <v>1574.0450000000001</v>
+        <v>1578.0989999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>853.72199999999998</v>
+        <v>864.80700000000002</v>
       </c>
       <c r="B77" s="1">
-        <v>1478.9159999999999</v>
+        <v>1482.1479999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D77" s="1">
         <v>-9.9499999999999993</v>
@@ -1512,28 +1512,28 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>848.46299999999997</v>
+        <v>860.41700000000003</v>
       </c>
       <c r="B78" s="1">
-        <v>1386.1990000000001</v>
+        <v>1388.627</v>
       </c>
       <c r="C78" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.95</v>
+        <v>-8</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>843.71400000000006</v>
+        <v>856.48800000000006</v>
       </c>
       <c r="B79" s="1">
-        <v>1293.4839999999999</v>
+        <v>1293.1189999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D79" s="1">
         <v>-5.95</v>
@@ -1542,166 +1542,166 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>839.81200000000001</v>
+        <v>853.5</v>
       </c>
       <c r="B80" s="1">
-        <v>1200.7170000000001</v>
+        <v>1200.606</v>
       </c>
       <c r="C80" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>836.41099999999994</v>
+        <v>850.68399999999997</v>
       </c>
       <c r="B81" s="1">
-        <v>1108.4159999999999</v>
+        <v>1107.53</v>
       </c>
       <c r="C81" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>833.54100000000005</v>
+        <v>848.60299999999995</v>
       </c>
       <c r="B82" s="1">
-        <v>1015.196</v>
+        <v>1011.914</v>
       </c>
       <c r="C82" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>831.25099999999998</v>
+        <v>847.49800000000005</v>
       </c>
       <c r="B83" s="1">
-        <v>923.25199999999995</v>
+        <v>919.83299999999997</v>
       </c>
       <c r="C83" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D83" s="1">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>829.79</v>
+        <v>846.51800000000003</v>
       </c>
       <c r="B84" s="1">
-        <v>828.97699999999998</v>
+        <v>823.92200000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D84" s="1">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>828.69399999999996</v>
+        <v>846.5</v>
       </c>
       <c r="B85" s="1">
-        <v>734.98400000000004</v>
+        <v>729.06500000000005</v>
       </c>
       <c r="C85" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>828.173</v>
+        <v>847.02599999999995</v>
       </c>
       <c r="B86" s="1">
-        <v>639.13400000000001</v>
+        <v>632.178</v>
       </c>
       <c r="C86" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D86" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>828.78399999999999</v>
+        <v>848.08500000000004</v>
       </c>
       <c r="B87" s="1">
-        <v>541.98199999999997</v>
+        <v>534.64</v>
       </c>
       <c r="C87" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D87" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>829.15599999999995</v>
+        <v>849.76</v>
       </c>
       <c r="B88" s="1">
-        <v>443.88600000000002</v>
+        <v>435.50299999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>830.42</v>
+        <v>852.04899999999998</v>
       </c>
       <c r="B89" s="1">
-        <v>344.815</v>
+        <v>334.31299999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D89" s="1">
-        <v>14.02</v>
+        <v>13.98</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>832.02</v>
+        <v>855.08399999999995</v>
       </c>
       <c r="B90" s="1">
-        <v>245.84899999999999</v>
+        <v>232.17099999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="D90" s="1">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="E90" s="1"/>
     </row>

--- a/cam4_validation.xlsx
+++ b/cam4_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E928DB-DA24-49A9-9385-B2A922D3532D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B651988-A2C7-4FFF-8296-CD584E9AEE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15591" yWindow="4183" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D90"/>
+      <selection sqref="A1:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>913.51300000000003</v>
+        <v>916.69799999999998</v>
       </c>
       <c r="B1" s="1">
-        <v>1015.333</v>
+        <v>1015.07</v>
       </c>
       <c r="C1" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,253 +372,253 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>949.37800000000004</v>
+        <v>956.37300000000005</v>
       </c>
       <c r="B2" s="1">
-        <v>1784.039</v>
+        <v>1824.3679999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>942.00199999999995</v>
+        <v>949.21</v>
       </c>
       <c r="B3" s="1">
-        <v>1679.7239999999999</v>
+        <v>1728.6389999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D3" s="1">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>935.70100000000002</v>
+        <v>942.13800000000003</v>
       </c>
       <c r="B4" s="1">
-        <v>1580.7619999999999</v>
+        <v>1624.5070000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>930.39200000000005</v>
+        <v>936.01199999999994</v>
       </c>
       <c r="B5" s="1">
-        <v>1485.5889999999999</v>
+        <v>1522.694</v>
       </c>
       <c r="C5" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.98</v>
+        <v>-10.07</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>925.77599999999995</v>
+        <v>930.55499999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1390.654</v>
+        <v>1422.232</v>
       </c>
       <c r="C6" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>921.56</v>
+        <v>926.02099999999996</v>
       </c>
       <c r="B7" s="1">
-        <v>1295.0809999999999</v>
+        <v>1321.6849999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>918.09699999999998</v>
+        <v>921.99699999999996</v>
       </c>
       <c r="B8" s="1">
-        <v>1201.6659999999999</v>
+        <v>1220.2909999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>915.52</v>
+        <v>918.99599999999998</v>
       </c>
       <c r="B9" s="1">
-        <v>1108.748</v>
+        <v>1120.5450000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D9" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>913.52</v>
+        <v>916.82100000000003</v>
       </c>
       <c r="B10" s="1">
-        <v>1012.112</v>
+        <v>1018.99</v>
       </c>
       <c r="C10" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>912.23</v>
+        <v>915.053</v>
       </c>
       <c r="B11" s="1">
-        <v>919.68499999999995</v>
+        <v>918.64</v>
       </c>
       <c r="C11" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D11" s="1">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>911.5</v>
+        <v>914.45</v>
       </c>
       <c r="B12" s="1">
-        <v>823.75699999999995</v>
+        <v>818.21400000000006</v>
       </c>
       <c r="C12" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>911.52</v>
+        <v>914.46299999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>728.702</v>
+        <v>717.54700000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D13" s="1">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>912.13599999999997</v>
+        <v>915.298</v>
       </c>
       <c r="B14" s="1">
-        <v>630.803</v>
+        <v>615.14200000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>7.95</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>913.89800000000002</v>
+        <v>916.91399999999999</v>
       </c>
       <c r="B15" s="1">
-        <v>534.5</v>
+        <v>515.86300000000006</v>
       </c>
       <c r="C15" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9499999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>915.93200000000002</v>
+        <v>919.13</v>
       </c>
       <c r="B16" s="1">
-        <v>433.73</v>
+        <v>412.13099999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D16" s="1">
-        <v>11.97</v>
+        <v>11.95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>918.64099999999996</v>
+        <v>922.49199999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>332.71199999999999</v>
+        <v>310.75299999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D17" s="1">
-        <v>13.97</v>
+        <v>13.95</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>922.36500000000001</v>
+        <v>925.95600000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>230.255</v>
+        <v>207.69900000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="D18" s="1">
         <v>15.95</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>895.50699999999995</v>
+        <v>898.69399999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>1014.967</v>
+        <v>1015.352</v>
       </c>
       <c r="C19" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,223 +642,223 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>930.48599999999999</v>
+        <v>937.39400000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>1781.2180000000001</v>
+        <v>1822.2760000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>923.33</v>
+        <v>930.56399999999996</v>
       </c>
       <c r="B21" s="1">
-        <v>1677.248</v>
+        <v>1727.5719999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>917.43799999999999</v>
+        <v>923.67499999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>1580.904</v>
+        <v>1623.857</v>
       </c>
       <c r="C22" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.98</v>
+        <v>-12.1</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>912.08399999999995</v>
+        <v>917.51400000000001</v>
       </c>
       <c r="B23" s="1">
-        <v>1484.954</v>
+        <v>1521.415</v>
       </c>
       <c r="C23" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>907.35500000000002</v>
+        <v>912.23099999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>1389.085</v>
+        <v>1420.2059999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>903.32299999999998</v>
+        <v>907.66499999999996</v>
       </c>
       <c r="B25" s="1">
-        <v>1294.1849999999999</v>
+        <v>1319.287</v>
       </c>
       <c r="C25" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>900.05600000000004</v>
+        <v>903.98299999999995</v>
       </c>
       <c r="B26" s="1">
-        <v>1200.434</v>
+        <v>1218.8689999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>897.5</v>
+        <v>900.96500000000003</v>
       </c>
       <c r="B27" s="1">
-        <v>1107.6980000000001</v>
+        <v>1118.365</v>
       </c>
       <c r="C27" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D27" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>895.5</v>
+        <v>898.62699999999995</v>
       </c>
       <c r="B28" s="1">
-        <v>1012.197</v>
+        <v>1018.479</v>
       </c>
       <c r="C28" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>894.19600000000003</v>
+        <v>897.03099999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>919.22</v>
+        <v>917.82799999999997</v>
       </c>
       <c r="C29" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>893.5</v>
+        <v>896.12099999999998</v>
       </c>
       <c r="B30" s="1">
-        <v>824.42399999999998</v>
+        <v>816.976</v>
       </c>
       <c r="C30" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D30" s="1">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>893.5</v>
+        <v>896.09400000000005</v>
       </c>
       <c r="B31" s="1">
-        <v>728.81600000000003</v>
+        <v>716.56799999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D31" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>893.99099999999999</v>
+        <v>897</v>
       </c>
       <c r="B32" s="1">
-        <v>630.86900000000003</v>
+        <v>614.59799999999996</v>
       </c>
       <c r="C32" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D32" s="1">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>895.31399999999996</v>
+        <v>898.50599999999997</v>
       </c>
       <c r="B33" s="1">
-        <v>533.221</v>
+        <v>514.72400000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D33" s="1">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>897.5</v>
+        <v>900.78099999999995</v>
       </c>
       <c r="B34" s="1">
-        <v>433.92200000000003</v>
+        <v>412.63</v>
       </c>
       <c r="C34" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D34" s="1">
         <v>11.95</v>
@@ -867,43 +867,43 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>900.18299999999999</v>
+        <v>903.49900000000002</v>
       </c>
       <c r="B35" s="1">
-        <v>332.20800000000003</v>
+        <v>310.91699999999997</v>
       </c>
       <c r="C35" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D35" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>903.48699999999997</v>
+        <v>907.05700000000002</v>
       </c>
       <c r="B36" s="1">
-        <v>230.482</v>
+        <v>207.7</v>
       </c>
       <c r="C36" s="1">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="D36" s="1">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>878.577</v>
+        <v>881.85400000000004</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.301</v>
+        <v>1015.207</v>
       </c>
       <c r="C37" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,223 +912,223 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>913.18399999999997</v>
+        <v>919.93799999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>1780.5909999999999</v>
+        <v>1820.2809999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>906.21799999999996</v>
+        <v>913.23199999999997</v>
       </c>
       <c r="B39" s="1">
-        <v>1677.287</v>
+        <v>1725.356</v>
       </c>
       <c r="C39" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>900.351</v>
+        <v>906.44100000000003</v>
       </c>
       <c r="B40" s="1">
-        <v>1579.8820000000001</v>
+        <v>1621.896</v>
       </c>
       <c r="C40" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.98</v>
+        <v>-12.08</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>895.01300000000003</v>
+        <v>900.53099999999995</v>
       </c>
       <c r="B41" s="1">
-        <v>1484.4380000000001</v>
+        <v>1520.8710000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>890.52099999999996</v>
+        <v>895.41600000000005</v>
       </c>
       <c r="B42" s="1">
-        <v>1388.847</v>
+        <v>1419.425</v>
       </c>
       <c r="C42" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>886.65499999999997</v>
+        <v>890.93799999999999</v>
       </c>
       <c r="B43" s="1">
-        <v>1294.2850000000001</v>
+        <v>1318.5709999999999</v>
       </c>
       <c r="C43" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>883.40200000000004</v>
+        <v>887.02099999999996</v>
       </c>
       <c r="B44" s="1">
-        <v>1200.6179999999999</v>
+        <v>1218.1679999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>880.66399999999999</v>
+        <v>883.995</v>
       </c>
       <c r="B45" s="1">
-        <v>1107.655</v>
+        <v>1117.9449999999999</v>
       </c>
       <c r="C45" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>878.51400000000001</v>
+        <v>881.89599999999996</v>
       </c>
       <c r="B46" s="1">
-        <v>1012.317</v>
+        <v>1018.098</v>
       </c>
       <c r="C46" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D46" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>877.5</v>
+        <v>880.26</v>
       </c>
       <c r="B47" s="1">
-        <v>919.72299999999996</v>
+        <v>917.17600000000004</v>
       </c>
       <c r="C47" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>876.5</v>
+        <v>879.53399999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>825.49900000000002</v>
+        <v>816.55700000000002</v>
       </c>
       <c r="C48" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D48" s="1">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>876.5</v>
+        <v>879.43</v>
       </c>
       <c r="B49" s="1">
-        <v>729.48800000000006</v>
+        <v>716.33699999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D49" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>877.20299999999997</v>
+        <v>880.03599999999994</v>
       </c>
       <c r="B50" s="1">
-        <v>631.87400000000002</v>
+        <v>615.31700000000001</v>
       </c>
       <c r="C50" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D50" s="1">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>878.42399999999998</v>
+        <v>881.7</v>
       </c>
       <c r="B51" s="1">
-        <v>533.87099999999998</v>
+        <v>513.68600000000004</v>
       </c>
       <c r="C51" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D51" s="1">
-        <v>9.98</v>
+        <v>9.92</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>880.42200000000003</v>
+        <v>883.61599999999999</v>
       </c>
       <c r="B52" s="1">
-        <v>435.06400000000002</v>
+        <v>412.63400000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D52" s="1">
         <v>11.95</v>
@@ -1137,43 +1137,43 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>883</v>
+        <v>886.471</v>
       </c>
       <c r="B53" s="1">
-        <v>333.71800000000002</v>
+        <v>310.47800000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D53" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>886.20299999999997</v>
+        <v>889.85400000000004</v>
       </c>
       <c r="B54" s="1">
-        <v>231.541</v>
+        <v>207.29400000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="D54" s="1">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>863.48900000000003</v>
+        <v>866.245</v>
       </c>
       <c r="B55" s="1">
-        <v>1014.991</v>
+        <v>1015.236</v>
       </c>
       <c r="C55" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,223 +1182,223 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>897.053</v>
+        <v>903.96400000000006</v>
       </c>
       <c r="B56" s="1">
-        <v>1779.442</v>
+        <v>1820.78</v>
       </c>
       <c r="C56" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>890.26700000000005</v>
+        <v>897.08299999999997</v>
       </c>
       <c r="B57" s="1">
-        <v>1676.748</v>
+        <v>1724.9179999999999</v>
       </c>
       <c r="C57" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D57" s="1">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>884.40899999999999</v>
+        <v>890.52800000000002</v>
       </c>
       <c r="B58" s="1">
-        <v>1577.8820000000001</v>
+        <v>1622.204</v>
       </c>
       <c r="C58" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.98</v>
+        <v>-12.1</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>879.24</v>
+        <v>884.70299999999997</v>
       </c>
       <c r="B59" s="1">
-        <v>1482.607</v>
+        <v>1519.749</v>
       </c>
       <c r="C59" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.08</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>874.93100000000004</v>
+        <v>879.72900000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1388.8689999999999</v>
+        <v>1420.6120000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-8.1</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>870.98599999999999</v>
+        <v>875.03700000000003</v>
       </c>
       <c r="B61" s="1">
-        <v>1293.2819999999999</v>
+        <v>1318.491</v>
       </c>
       <c r="C61" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>867.90599999999995</v>
+        <v>871.71600000000001</v>
       </c>
       <c r="B62" s="1">
-        <v>1200.662</v>
+        <v>1218.511</v>
       </c>
       <c r="C62" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D62" s="1">
-        <v>-4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>865.43200000000002</v>
+        <v>868.70799999999997</v>
       </c>
       <c r="B63" s="1">
-        <v>1106.74</v>
+        <v>1118.096</v>
       </c>
       <c r="C63" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D63" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>863.476</v>
+        <v>866.29100000000005</v>
       </c>
       <c r="B64" s="1">
-        <v>1011.763</v>
+        <v>1018.2140000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D64" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>861.73</v>
+        <v>864.79100000000005</v>
       </c>
       <c r="B65" s="1">
-        <v>919.46799999999996</v>
+        <v>917.71900000000005</v>
       </c>
       <c r="C65" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D65" s="1">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>861.43700000000001</v>
+        <v>863.94100000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>823.67100000000005</v>
+        <v>817.17399999999998</v>
       </c>
       <c r="C66" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>860.99099999999999</v>
+        <v>863.90099999999995</v>
       </c>
       <c r="B67" s="1">
-        <v>728.51700000000005</v>
+        <v>716.55700000000002</v>
       </c>
       <c r="C67" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D67" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>861.5</v>
+        <v>864.42499999999995</v>
       </c>
       <c r="B68" s="1">
-        <v>631.63</v>
+        <v>615.95100000000002</v>
       </c>
       <c r="C68" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D68" s="1">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>862.80600000000004</v>
+        <v>865.92600000000004</v>
       </c>
       <c r="B69" s="1">
-        <v>533.875</v>
+        <v>514.81600000000003</v>
       </c>
       <c r="C69" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D69" s="1">
-        <v>9.98</v>
+        <v>9.92</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>864.5</v>
+        <v>867.68700000000001</v>
       </c>
       <c r="B70" s="1">
-        <v>434.96300000000002</v>
+        <v>413.67899999999997</v>
       </c>
       <c r="C70" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D70" s="1">
         <v>11.95</v>
@@ -1407,302 +1407,158 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>867</v>
+        <v>870.44600000000003</v>
       </c>
       <c r="B71" s="1">
-        <v>333.733</v>
+        <v>311.54300000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D71" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>870.10900000000004</v>
+        <v>873.50900000000001</v>
       </c>
       <c r="B72" s="1">
-        <v>231.202</v>
+        <v>207.922</v>
       </c>
       <c r="C72" s="1">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="D72" s="1">
-        <v>15.95</v>
+        <v>15.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>848.71299999999997</v>
-      </c>
-      <c r="B73" s="1">
-        <v>1015.275</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>882.06899999999996</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1778.854</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-16.07</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>875.48599999999999</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1675.7080000000001</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-14</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>869.89700000000005</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1578.0989999999999</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-11.98</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>864.80700000000002</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1482.1479999999999</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-9.9499999999999993</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>860.41700000000003</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1388.627</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-8</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>856.48800000000006</v>
-      </c>
-      <c r="B79" s="1">
-        <v>1293.1189999999999</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-5.95</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>853.5</v>
-      </c>
-      <c r="B80" s="1">
-        <v>1200.606</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D80" s="1">
-        <v>-4</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>850.68399999999997</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1107.53</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-2</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>848.60299999999995</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1011.914</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.02</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>847.49800000000005</v>
-      </c>
-      <c r="B83" s="1">
-        <v>919.83299999999997</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1.98</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>846.51800000000003</v>
-      </c>
-      <c r="B84" s="1">
-        <v>823.92200000000003</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D84" s="1">
-        <v>4</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>846.5</v>
-      </c>
-      <c r="B85" s="1">
-        <v>729.06500000000005</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D85" s="1">
-        <v>5.98</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>847.02599999999995</v>
-      </c>
-      <c r="B86" s="1">
-        <v>632.178</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D86" s="1">
-        <v>7.98</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>848.08500000000004</v>
-      </c>
-      <c r="B87" s="1">
-        <v>534.64</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D87" s="1">
-        <v>9.98</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>849.76</v>
-      </c>
-      <c r="B88" s="1">
-        <v>435.50299999999999</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D88" s="1">
-        <v>11.95</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>852.04899999999998</v>
-      </c>
-      <c r="B89" s="1">
-        <v>334.31299999999999</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D89" s="1">
-        <v>13.98</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>855.08399999999995</v>
-      </c>
-      <c r="B90" s="1">
-        <v>232.17099999999999</v>
-      </c>
-      <c r="C90" s="1">
-        <v>2951.3</v>
-      </c>
-      <c r="D90" s="1">
-        <v>15.95</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">

--- a/cam4_validation.xlsx
+++ b/cam4_validation.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B651988-A2C7-4FFF-8296-CD584E9AEE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B90372-3560-429A-9103-54D96988D90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15591" yWindow="4183" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17743" yWindow="3026" windowWidth="15394" windowHeight="12737" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,20 +359,20 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D72"/>
+      <selection sqref="A1:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>916.69799999999998</v>
+        <v>930</v>
       </c>
       <c r="B1" s="1">
-        <v>1015.07</v>
+        <v>1015.069</v>
       </c>
       <c r="C1" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,268 +381,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>956.37300000000005</v>
+        <v>959.78</v>
       </c>
       <c r="B2" s="1">
-        <v>1824.3679999999999</v>
+        <v>1779.2090000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>949.21</v>
+        <v>953.15099999999995</v>
       </c>
       <c r="B3" s="1">
-        <v>1728.6389999999999</v>
+        <v>1675.635</v>
       </c>
       <c r="C3" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>942.13800000000003</v>
+        <v>947.90899999999999</v>
       </c>
       <c r="B4" s="1">
-        <v>1624.5070000000001</v>
+        <v>1579.963</v>
       </c>
       <c r="C4" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.1</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>936.01199999999994</v>
+        <v>943.22699999999998</v>
       </c>
       <c r="B5" s="1">
-        <v>1522.694</v>
+        <v>1484.2909999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.07</v>
+        <v>-10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>930.55499999999995</v>
+        <v>939.14</v>
       </c>
       <c r="B6" s="1">
-        <v>1422.232</v>
+        <v>1388.337</v>
       </c>
       <c r="C6" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>926.02099999999996</v>
+        <v>935.62099999999998</v>
       </c>
       <c r="B7" s="1">
-        <v>1321.6849999999999</v>
+        <v>1294.98</v>
       </c>
       <c r="C7" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>921.99699999999996</v>
+        <v>933.15099999999995</v>
       </c>
       <c r="B8" s="1">
-        <v>1220.2909999999999</v>
+        <v>1201.337</v>
       </c>
       <c r="C8" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>918.99599999999998</v>
+        <v>931.15800000000002</v>
       </c>
       <c r="B9" s="1">
-        <v>1120.5450000000001</v>
+        <v>1107.288</v>
       </c>
       <c r="C9" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>916.82100000000003</v>
+        <v>930</v>
       </c>
       <c r="B10" s="1">
-        <v>1018.99</v>
+        <v>1014.125</v>
       </c>
       <c r="C10" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>915.053</v>
+        <v>929.44200000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>918.64</v>
+        <v>919.31700000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D11" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>914.45</v>
+        <v>929.54100000000005</v>
       </c>
       <c r="B12" s="1">
-        <v>818.21400000000006</v>
+        <v>824.745</v>
       </c>
       <c r="C12" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D12" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>914.46299999999997</v>
+        <v>930.41800000000001</v>
       </c>
       <c r="B13" s="1">
-        <v>717.54700000000003</v>
+        <v>730.303</v>
       </c>
       <c r="C13" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D13" s="1">
-        <v>5.9</v>
+        <v>6.02</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>915.298</v>
+        <v>931.64300000000003</v>
       </c>
       <c r="B14" s="1">
-        <v>615.14200000000005</v>
+        <v>636.24800000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D14" s="1">
-        <v>7.95</v>
+        <v>8.02</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>916.91399999999999</v>
+        <v>934.072</v>
       </c>
       <c r="B15" s="1">
-        <v>515.86300000000006</v>
+        <v>540.59900000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9</v>
+        <v>10.02</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>919.13</v>
+        <v>936.86599999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>412.13099999999997</v>
+        <v>445.17099999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D16" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>922.49199999999996</v>
+        <v>940.54899999999998</v>
       </c>
       <c r="B17" s="1">
-        <v>310.75299999999999</v>
+        <v>345.68799999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D17" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>925.95600000000002</v>
+        <v>944.94500000000005</v>
       </c>
       <c r="B18" s="1">
-        <v>207.69900000000001</v>
+        <v>245.54900000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="D18" s="1">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>898.69399999999996</v>
+        <v>912.91300000000001</v>
       </c>
       <c r="B19" s="1">
-        <v>1015.352</v>
+        <v>1014.984</v>
       </c>
       <c r="C19" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,268 +651,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>937.39400000000001</v>
+        <v>941.68299999999999</v>
       </c>
       <c r="B20" s="1">
-        <v>1822.2760000000001</v>
+        <v>1777.7349999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>930.56399999999996</v>
+        <v>935.33199999999999</v>
       </c>
       <c r="B21" s="1">
-        <v>1727.5719999999999</v>
+        <v>1674.7059999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>923.67499999999995</v>
+        <v>930.08299999999997</v>
       </c>
       <c r="B22" s="1">
-        <v>1623.857</v>
+        <v>1578.924</v>
       </c>
       <c r="C22" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.1</v>
+        <v>-11.98</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>917.51400000000001</v>
+        <v>925.52599999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1521.415</v>
+        <v>1483.595</v>
       </c>
       <c r="C23" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>912.23099999999999</v>
+        <v>921.53499999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>1420.2059999999999</v>
+        <v>1388.172</v>
       </c>
       <c r="C24" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>907.66499999999996</v>
+        <v>918.45899999999995</v>
       </c>
       <c r="B25" s="1">
-        <v>1319.287</v>
+        <v>1293.529</v>
       </c>
       <c r="C25" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D25" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>903.98299999999995</v>
+        <v>915.75900000000001</v>
       </c>
       <c r="B26" s="1">
-        <v>1218.8689999999999</v>
+        <v>1200.252</v>
       </c>
       <c r="C26" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>900.96500000000003</v>
+        <v>914</v>
       </c>
       <c r="B27" s="1">
-        <v>1118.365</v>
+        <v>1106.3879999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>898.62699999999995</v>
+        <v>912.846</v>
       </c>
       <c r="B28" s="1">
-        <v>1018.479</v>
+        <v>1013.42</v>
       </c>
       <c r="C28" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>897.03099999999995</v>
+        <v>912</v>
       </c>
       <c r="B29" s="1">
-        <v>917.82799999999997</v>
+        <v>919.61599999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D29" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>896.12099999999998</v>
+        <v>912.07399999999996</v>
       </c>
       <c r="B30" s="1">
-        <v>816.976</v>
+        <v>823.36199999999997</v>
       </c>
       <c r="C30" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D30" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>896.09400000000005</v>
+        <v>913.01300000000003</v>
       </c>
       <c r="B31" s="1">
-        <v>716.56799999999998</v>
+        <v>729.04499999999996</v>
       </c>
       <c r="C31" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D31" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>897</v>
+        <v>914.45299999999997</v>
       </c>
       <c r="B32" s="1">
-        <v>614.59799999999996</v>
+        <v>635.69399999999996</v>
       </c>
       <c r="C32" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D32" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>898.50599999999997</v>
+        <v>916.50699999999995</v>
       </c>
       <c r="B33" s="1">
-        <v>514.72400000000005</v>
+        <v>540.03300000000002</v>
       </c>
       <c r="C33" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D33" s="1">
-        <v>9.93</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>900.78099999999995</v>
+        <v>919.423</v>
       </c>
       <c r="B34" s="1">
-        <v>412.63</v>
+        <v>444.15</v>
       </c>
       <c r="C34" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D34" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>903.49900000000002</v>
+        <v>922.71500000000003</v>
       </c>
       <c r="B35" s="1">
-        <v>310.91699999999997</v>
+        <v>345.125</v>
       </c>
       <c r="C35" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D35" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>907.05700000000002</v>
+        <v>926.971</v>
       </c>
       <c r="B36" s="1">
-        <v>207.7</v>
+        <v>244.69200000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="D36" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>881.85400000000004</v>
+        <v>896.76199999999994</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.207</v>
+        <v>1015.205</v>
       </c>
       <c r="C37" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,527 +921,383 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>919.93799999999999</v>
+        <v>925.03200000000004</v>
       </c>
       <c r="B38" s="1">
-        <v>1820.2809999999999</v>
+        <v>1777.345</v>
       </c>
       <c r="C38" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>913.23199999999997</v>
+        <v>918.92600000000004</v>
       </c>
       <c r="B39" s="1">
-        <v>1725.356</v>
+        <v>1674.3679999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>906.44100000000003</v>
+        <v>913.721</v>
       </c>
       <c r="B40" s="1">
-        <v>1621.896</v>
+        <v>1578.492</v>
       </c>
       <c r="C40" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.08</v>
+        <v>-11.98</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>900.53099999999995</v>
+        <v>909.37599999999998</v>
       </c>
       <c r="B41" s="1">
-        <v>1520.8710000000001</v>
+        <v>1482.42</v>
       </c>
       <c r="C41" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>895.41600000000005</v>
+        <v>905.46199999999999</v>
       </c>
       <c r="B42" s="1">
-        <v>1419.425</v>
+        <v>1387.365</v>
       </c>
       <c r="C42" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>890.93799999999999</v>
+        <v>902.28599999999994</v>
       </c>
       <c r="B43" s="1">
-        <v>1318.5709999999999</v>
+        <v>1294.078</v>
       </c>
       <c r="C43" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D43" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>887.02099999999996</v>
+        <v>899.77200000000005</v>
       </c>
       <c r="B44" s="1">
-        <v>1218.1679999999999</v>
+        <v>1199.8610000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>883.995</v>
+        <v>897.96699999999998</v>
       </c>
       <c r="B45" s="1">
-        <v>1117.9449999999999</v>
+        <v>1106.845</v>
       </c>
       <c r="C45" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>881.89599999999996</v>
+        <v>896.77300000000002</v>
       </c>
       <c r="B46" s="1">
-        <v>1018.098</v>
+        <v>1013.967</v>
       </c>
       <c r="C46" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>880.26</v>
+        <v>896</v>
       </c>
       <c r="B47" s="1">
-        <v>917.17600000000004</v>
+        <v>919.428</v>
       </c>
       <c r="C47" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D47" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>879.53399999999999</v>
+        <v>896</v>
       </c>
       <c r="B48" s="1">
-        <v>816.55700000000002</v>
+        <v>824.35400000000004</v>
       </c>
       <c r="C48" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D48" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>879.43</v>
+        <v>896.89800000000002</v>
       </c>
       <c r="B49" s="1">
-        <v>716.33699999999999</v>
+        <v>729.553</v>
       </c>
       <c r="C49" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D49" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>880.03599999999994</v>
+        <v>898.18600000000004</v>
       </c>
       <c r="B50" s="1">
-        <v>615.31700000000001</v>
+        <v>636.47199999999998</v>
       </c>
       <c r="C50" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D50" s="1">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>881.7</v>
+        <v>900.41399999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>513.68600000000004</v>
+        <v>540.23299999999995</v>
       </c>
       <c r="C51" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D51" s="1">
-        <v>9.92</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>883.61599999999999</v>
+        <v>902.86300000000006</v>
       </c>
       <c r="B52" s="1">
-        <v>412.63400000000001</v>
+        <v>444.81400000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D52" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>886.471</v>
+        <v>906.36800000000005</v>
       </c>
       <c r="B53" s="1">
-        <v>310.47800000000001</v>
+        <v>346.29500000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D53" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>889.85400000000004</v>
+        <v>910.15499999999997</v>
       </c>
       <c r="B54" s="1">
-        <v>207.29400000000001</v>
+        <v>246.05099999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="D54" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>866.245</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1015.236</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>903.96400000000006</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1820.78</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-15.9</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>897.08299999999997</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1724.9179999999999</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-14.1</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>890.52800000000002</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1622.204</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-12.1</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>884.70299999999997</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1519.749</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-10.08</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>879.72900000000004</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1420.6120000000001</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-8.1</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>875.03700000000003</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1318.491</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-6.1</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>871.71600000000001</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1218.511</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-4.0999999999999996</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>868.70799999999997</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1118.096</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-2.1</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>866.29100000000005</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1018.2140000000001</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>-0.1</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>864.79100000000005</v>
-      </c>
-      <c r="B65" s="1">
-        <v>917.71900000000005</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1.9</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>863.94100000000003</v>
-      </c>
-      <c r="B66" s="1">
-        <v>817.17399999999998</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3.9</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>863.90099999999995</v>
-      </c>
-      <c r="B67" s="1">
-        <v>716.55700000000002</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>5.9</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>864.42499999999995</v>
-      </c>
-      <c r="B68" s="1">
-        <v>615.95100000000002</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7.92</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>865.92600000000004</v>
-      </c>
-      <c r="B69" s="1">
-        <v>514.81600000000003</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D69" s="1">
-        <v>9.92</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>867.68700000000001</v>
-      </c>
-      <c r="B70" s="1">
-        <v>413.67899999999997</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D70" s="1">
-        <v>11.95</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>870.44600000000003</v>
-      </c>
-      <c r="B71" s="1">
-        <v>311.54300000000001</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D71" s="1">
-        <v>13.95</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>873.50900000000001</v>
-      </c>
-      <c r="B72" s="1">
-        <v>207.922</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2849.2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>15.97</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
